--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3866.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3866.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.756785314259409</v>
+        <v>4.282089710235596</v>
       </c>
       <c r="B1">
-        <v>3.182585842223277</v>
+        <v>4.74585485458374</v>
       </c>
       <c r="C1">
-        <v>3.49866868029358</v>
+        <v>3.917789459228516</v>
       </c>
       <c r="D1">
-        <v>3.283345522025805</v>
+        <v>4.710554599761963</v>
       </c>
       <c r="E1">
-        <v>0.8146693840853426</v>
+        <v>4.734210014343262</v>
       </c>
     </row>
   </sheetData>
